--- a/data/THG.xlsx
+++ b/data/THG.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>THG</t>
@@ -27763,7 +27763,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AR176"/>
+  <dimension ref="A1:AS176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27815,6 +27815,7 @@
     <col min="42" max="42" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="44" max="44" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27990,6 +27991,9 @@
       <c r="AR11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AS11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -28121,6 +28125,9 @@
       <c r="AR12" s="25" t="n">
         <v>2.47012931089E11</v>
       </c>
+      <c r="AS12" s="25" t="n">
+        <v>2.33482839734E11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -28252,6 +28259,9 @@
       <c r="AR13" s="25" t="n">
         <v>1.241780924E9</v>
       </c>
+      <c r="AS13" s="25" t="n">
+        <v>5.129607691E9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -28383,6 +28393,9 @@
       <c r="AR14" s="25" t="n">
         <v>1.36068065911E11</v>
       </c>
+      <c r="AS14" s="25" t="n">
+        <v>1.18847301275E11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -28514,6 +28527,9 @@
       <c r="AR15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28645,6 +28661,9 @@
       <c r="AR16" s="25" t="n">
         <v>1.09703084254E11</v>
       </c>
+      <c r="AS16" s="25" t="n">
+        <v>1.09505930768E11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28776,6 +28795,9 @@
       <c r="AR17" s="25" t="n">
         <v>4.5204114346E10</v>
       </c>
+      <c r="AS17" s="25" t="n">
+        <v>2.4634858202E10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28907,6 +28929,9 @@
       <c r="AR18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -29038,6 +29063,9 @@
       <c r="AR19" s="25" t="n">
         <v>4.5204114346E10</v>
       </c>
+      <c r="AS19" s="25" t="n">
+        <v>2.4634858202E10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -29169,6 +29197,9 @@
       <c r="AR20" s="25" t="n">
         <v>4.5204114346E10</v>
       </c>
+      <c r="AS20" s="25" t="n">
+        <v>2.4634858202E10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -29300,6 +29331,9 @@
       <c r="AR21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -29431,6 +29465,9 @@
       <c r="AR22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -29562,6 +29599,9 @@
       <c r="AR23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -29693,6 +29733,9 @@
       <c r="AR24" s="25" t="n">
         <v>7.2214435836E10</v>
       </c>
+      <c r="AS24" s="25" t="n">
+        <v>9.7518103848E10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -29824,6 +29867,9 @@
       <c r="AR25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -29955,6 +30001,9 @@
       <c r="AR26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -30086,6 +30135,9 @@
       <c r="AR27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -30217,6 +30269,9 @@
       <c r="AR28" s="25" t="n">
         <v>7.2214435836E10</v>
       </c>
+      <c r="AS28" s="25" t="n">
+        <v>9.7518103848E10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -30348,6 +30403,9 @@
       <c r="AR29" s="25" t="n">
         <v>8.04436145813E11</v>
       </c>
+      <c r="AS29" s="25" t="n">
+        <v>8.05564615246E11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -30479,6 +30537,9 @@
       <c r="AR30" s="25" t="n">
         <v>1.115671039E9</v>
       </c>
+      <c r="AS30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -30610,6 +30671,9 @@
       <c r="AR31" s="25" t="n">
         <v>8.0750488544E10</v>
       </c>
+      <c r="AS31" s="25" t="n">
+        <v>8.2591985535E10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -30741,6 +30805,9 @@
       <c r="AR32" s="25" t="n">
         <v>1.01968182E8</v>
       </c>
+      <c r="AS32" s="25" t="n">
+        <v>3.6296296E7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -30872,6 +30939,9 @@
       <c r="AR33" s="25" t="n">
         <v>3.98504788835E11</v>
       </c>
+      <c r="AS33" s="25" t="n">
+        <v>3.86142015803E11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -31003,6 +31073,9 @@
       <c r="AR34" s="25" t="n">
         <v>3.19811682299E11</v>
       </c>
+      <c r="AS34" s="25" t="n">
+        <v>3.34667889456E11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -31134,6 +31207,9 @@
       <c r="AR35" s="25" t="n">
         <v>4.151546914E9</v>
       </c>
+      <c r="AS35" s="25" t="n">
+        <v>2.126428156E9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -31265,6 +31341,9 @@
       <c r="AR36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -31396,6 +31475,9 @@
       <c r="AR37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -31527,6 +31609,9 @@
       <c r="AR38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -31658,6 +31743,9 @@
       <c r="AR39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -31789,6 +31877,9 @@
       <c r="AR40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -31920,6 +32011,9 @@
       <c r="AR41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -32051,6 +32145,9 @@
       <c r="AR42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -32182,6 +32279,9 @@
       <c r="AR43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -32313,6 +32413,9 @@
       <c r="AR44" s="25" t="n">
         <v>3.30945615E8</v>
       </c>
+      <c r="AS44" s="25" t="n">
+        <v>3.36945615E8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -32444,6 +32547,9 @@
       <c r="AR45" s="25" t="n">
         <v>3.30945615E8</v>
       </c>
+      <c r="AS45" s="25" t="n">
+        <v>3.36945615E8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -32575,6 +32681,9 @@
       <c r="AR46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -32706,6 +32815,9 @@
       <c r="AR47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -32837,6 +32949,9 @@
       <c r="AR48" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -32968,6 +33083,9 @@
       <c r="AR49" s="25" t="n">
         <v>7.91481214699E11</v>
       </c>
+      <c r="AS49" s="25" t="n">
+        <v>8.16172918837E11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -33099,6 +33217,9 @@
       <c r="AR50" s="25" t="n">
         <v>7.57439129451E11</v>
       </c>
+      <c r="AS50" s="25" t="n">
+        <v>7.57439129451E11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -33230,6 +33351,9 @@
       <c r="AR51" s="25" t="n">
         <v>3.442154078E10</v>
       </c>
+      <c r="AS51" s="25" t="n">
+        <v>6.0575706419E10</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -33361,6 +33485,9 @@
       <c r="AR52" s="25" t="n">
         <v>-3.79455532E8</v>
       </c>
+      <c r="AS52" s="25" t="n">
+        <v>-1.841917033E9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -33492,6 +33619,9 @@
       <c r="AR53" s="25" t="n">
         <v>4.92433529051E11</v>
       </c>
+      <c r="AS53" s="25" t="n">
+        <v>5.06683208573E11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -33623,6 +33753,9 @@
       <c r="AR54" s="25" t="n">
         <v>4.63140424719E11</v>
       </c>
+      <c r="AS54" s="25" t="n">
+        <v>4.63140424719E11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -33754,6 +33887,9 @@
       <c r="AR55" s="25" t="n">
         <v>2.9672559864E10</v>
       </c>
+      <c r="AS55" s="25" t="n">
+        <v>4.5384700887E10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -33885,6 +34021,9 @@
       <c r="AR56" s="25" t="n">
         <v>-3.79455532E8</v>
       </c>
+      <c r="AS56" s="25" t="n">
+        <v>-1.841917033E9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -34016,6 +34155,9 @@
       <c r="AR57" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -34147,6 +34289,9 @@
       <c r="AR58" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -34278,6 +34423,9 @@
       <c r="AR59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -34409,6 +34557,9 @@
       <c r="AR60" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -34540,6 +34691,9 @@
       <c r="AR61" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -34671,6 +34825,9 @@
       <c r="AR62" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -34802,6 +34959,9 @@
       <c r="AR63" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -34933,6 +35093,9 @@
       <c r="AR64" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -35064,6 +35227,9 @@
       <c r="AR65" s="25" t="n">
         <v>3.8976911419E10</v>
       </c>
+      <c r="AS65" s="25" t="n">
+        <v>3.8976911419E10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -35195,6 +35361,9 @@
       <c r="AR66" s="25" t="n">
         <v>3.8976911419E10</v>
       </c>
+      <c r="AS66" s="25" t="n">
+        <v>3.8541147619E10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -35326,6 +35495,9 @@
       <c r="AR67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS67" s="25" t="n">
+        <v>4.357638E8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -35457,6 +35629,9 @@
       <c r="AR68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -35588,6 +35763,9 @@
       <c r="AR69" s="25" t="n">
         <v>6.698904385E9</v>
       </c>
+      <c r="AS69" s="25" t="n">
+        <v>6.961327993E9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -35719,6 +35897,9 @@
       <c r="AR70" s="25" t="n">
         <v>6.174057169E9</v>
       </c>
+      <c r="AS70" s="25" t="n">
+        <v>6.525564193E9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -35850,6 +36031,9 @@
       <c r="AR71" s="25" t="n">
         <v>5.24847216E8</v>
       </c>
+      <c r="AS71" s="25" t="n">
+        <v>4.357638E8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -35981,6 +36165,9 @@
       <c r="AR72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -36112,6 +36299,9 @@
       <c r="AR73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -36243,6 +36433,9 @@
       <c r="AR74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -36374,6 +36567,9 @@
       <c r="AR75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -36505,6 +36701,9 @@
       <c r="AR76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -36636,6 +36835,9 @@
       <c r="AR77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -36767,6 +36969,9 @@
       <c r="AR78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -36898,6 +37103,9 @@
       <c r="AR79" s="25" t="n">
         <v>2.16854255474E11</v>
       </c>
+      <c r="AS79" s="25" t="n">
+        <v>2.33836160828E11</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -37029,6 +37237,9 @@
       <c r="AR80" s="25" t="n">
         <v>1.01068255842E11</v>
       </c>
+      <c r="AS80" s="25" t="n">
+        <v>1.07749258168E11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -37160,6 +37371,9 @@
       <c r="AR81" s="25" t="n">
         <v>1.15785999632E11</v>
       </c>
+      <c r="AS81" s="25" t="n">
+        <v>1.2608690266E11</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -37291,6 +37505,9 @@
       <c r="AR82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -37422,6 +37639,9 @@
       <c r="AR83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -37553,6 +37773,9 @@
       <c r="AR84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -37684,6 +37907,9 @@
       <c r="AR85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -37815,6 +38041,9 @@
       <c r="AR86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -37946,6 +38175,9 @@
       <c r="AR87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -38077,6 +38309,9 @@
       <c r="AR88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -38208,6 +38443,9 @@
       <c r="AR89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -38339,6 +38577,9 @@
       <c r="AR90" s="25" t="n">
         <v>1.6518653881E10</v>
       </c>
+      <c r="AS90" s="25" t="n">
+        <v>2.7289022855E10</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -38470,6 +38711,9 @@
       <c r="AR91" s="25" t="n">
         <v>4.45075484E8</v>
       </c>
+      <c r="AS91" s="25" t="n">
+        <v>7.27180559E8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -38601,6 +38845,9 @@
       <c r="AR92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -38732,6 +38979,9 @@
       <c r="AR93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -38863,6 +39113,9 @@
       <c r="AR94" s="25" t="n">
         <v>1.5907965032E10</v>
       </c>
+      <c r="AS94" s="25" t="n">
+        <v>2.6409441312E10</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -38994,6 +39247,9 @@
       <c r="AR95" s="25" t="n">
         <v>1.6294322E8</v>
       </c>
+      <c r="AS95" s="25" t="n">
+        <v>1.49220684E8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -39125,6 +39381,9 @@
       <c r="AR96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -39256,6 +39515,9 @@
       <c r="AR97" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -39387,6 +39649,9 @@
       <c r="AR98" s="25" t="n">
         <v>2670145.0</v>
       </c>
+      <c r="AS98" s="25" t="n">
+        <v>3180300.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -39518,6 +39783,9 @@
       <c r="AR99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -39649,6 +39917,9 @@
       <c r="AR100" s="25" t="n">
         <v>3.9388126096E10</v>
       </c>
+      <c r="AS100" s="25" t="n">
+        <v>5.6542493713E10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -39780,6 +40051,9 @@
       <c r="AR101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -39911,6 +40185,9 @@
       <c r="AR102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -40042,6 +40319,9 @@
       <c r="AR103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -40173,6 +40453,9 @@
       <c r="AR104" s="25" t="n">
         <v>3.9388126096E10</v>
       </c>
+      <c r="AS104" s="25" t="n">
+        <v>5.6542493713E10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -40304,6 +40587,9 @@
       <c r="AR105" s="25" t="n">
         <v>2.7039631576E10</v>
       </c>
+      <c r="AS105" s="25" t="n">
+        <v>1.637777936E9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -40435,6 +40721,9 @@
       <c r="AR106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -40566,6 +40855,9 @@
       <c r="AR107" s="25" t="n">
         <v>1.86353513E8</v>
       </c>
+      <c r="AS107" s="25" t="n">
+        <v>3.49834573E8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -40697,6 +40989,9 @@
       <c r="AR108" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS108" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -40828,6 +41123,9 @@
       <c r="AR109" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -40959,6 +41257,9 @@
       <c r="AR110" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -41090,6 +41391,9 @@
       <c r="AR111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -41221,6 +41525,9 @@
       <c r="AR112" s="25" t="n">
         <v>1.195E8</v>
       </c>
+      <c r="AS112" s="25" t="n">
+        <v>1.13E8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -41352,6 +41659,9 @@
       <c r="AR113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -41483,6 +41793,9 @@
       <c r="AR114" s="25" t="n">
         <v>2.6733778063E10</v>
       </c>
+      <c r="AS114" s="25" t="n">
+        <v>1.174943363E9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -41614,6 +41927,9 @@
       <c r="AR115" s="25" t="n">
         <v>2.93193297828E11</v>
       </c>
+      <c r="AS115" s="25" t="n">
+        <v>3.87006603024E11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -41745,6 +42061,9 @@
       <c r="AR116" s="25" t="n">
         <v>2.58280797827E11</v>
       </c>
+      <c r="AS116" s="25" t="n">
+        <v>3.62425353024E11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -41876,6 +42195,9 @@
       <c r="AR117" s="25" t="n">
         <v>3.4912500001E10</v>
       </c>
+      <c r="AS117" s="25" t="n">
+        <v>2.458125E10</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -42007,6 +42329,9 @@
       <c r="AR118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -42138,6 +42463,9 @@
       <c r="AR119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -42269,6 +42597,9 @@
       <c r="AR120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -42400,6 +42731,9 @@
       <c r="AR121" s="25" t="n">
         <v>3.1129907E11</v>
       </c>
+      <c r="AS121" s="25" t="n">
+        <v>3.1129907E11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -42531,6 +42865,9 @@
       <c r="AR122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -42662,6 +42999,9 @@
       <c r="AR123" s="25" t="n">
         <v>3.1129907E11</v>
       </c>
+      <c r="AS123" s="25" t="n">
+        <v>3.1129907E11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -42793,6 +43133,9 @@
       <c r="AR124" s="25" t="n">
         <v>6.24802517394E11</v>
       </c>
+      <c r="AS124" s="25" t="n">
+        <v>5.66473106934E11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -42924,6 +43267,9 @@
       <c r="AR125" s="25" t="n">
         <v>4.81481670055E11</v>
       </c>
+      <c r="AS125" s="25" t="n">
+        <v>2.25730008314E11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -43055,6 +43401,9 @@
       <c r="AR126" s="25" t="n">
         <v>1.0226599542E10</v>
       </c>
+      <c r="AS126" s="25" t="n">
+        <v>2.67489714568E11</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -43186,6 +43535,9 @@
       <c r="AR127" s="25" t="n">
         <v>1.33094247797E11</v>
       </c>
+      <c r="AS127" s="25" t="n">
+        <v>7.3253384052E10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -43317,6 +43669,9 @@
       <c r="AR128" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS128" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -43448,6 +43803,9 @@
       <c r="AR129" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS129" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -43579,6 +43937,9 @@
       <c r="AR130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -43710,6 +44071,9 @@
       <c r="AR131" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -43841,6 +44205,9 @@
       <c r="AR132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -43972,6 +44339,9 @@
       <c r="AR133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -44103,6 +44473,9 @@
       <c r="AR134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -44234,6 +44607,9 @@
       <c r="AR135" s="25" t="n">
         <v>4.93803366311E11</v>
       </c>
+      <c r="AS135" s="25" t="n">
+        <v>4.30601786214E11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -44365,6 +44741,9 @@
       <c r="AR136" s="25" t="n">
         <v>2.65311447309E11</v>
       </c>
+      <c r="AS136" s="25" t="n">
+        <v>3.07719489128E11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -44496,6 +44875,9 @@
       <c r="AR137" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS137" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -44627,6 +45009,9 @@
       <c r="AR138" s="25" t="n">
         <v>1.32251348897E11</v>
       </c>
+      <c r="AS138" s="25" t="n">
+        <v>6.9351752167E10</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -44758,6 +45143,9 @@
       <c r="AR139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -44889,6 +45277,9 @@
       <c r="AR140" s="25" t="n">
         <v>9.6240570105E10</v>
       </c>
+      <c r="AS140" s="25" t="n">
+        <v>5.3530544919E10</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -45020,6 +45411,9 @@
       <c r="AR141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -45151,6 +45545,9 @@
       <c r="AR142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -45282,6 +45679,9 @@
       <c r="AR143" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -45413,6 +45813,9 @@
       <c r="AR144" s="25" t="n">
         <v>1.568908494E9</v>
       </c>
+      <c r="AS144" s="25" t="n">
+        <v>1.379537726E9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -45544,6 +45947,9 @@
       <c r="AR145" s="25" t="n">
         <v>1.559378531E9</v>
       </c>
+      <c r="AS145" s="25" t="n">
+        <v>1.378130387E9</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -45675,6 +46081,9 @@
       <c r="AR146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -45806,6 +46215,9 @@
       <c r="AR147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -45937,6 +46349,9 @@
       <c r="AR148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -46068,6 +46483,9 @@
       <c r="AR149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -46199,6 +46617,9 @@
       <c r="AR150" s="25" t="n">
         <v>1.3181919E7</v>
       </c>
+      <c r="AS150" s="25" t="n">
+        <v>1407339.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -46330,6 +46751,9 @@
       <c r="AR151" s="25" t="n">
         <v>-3651956.0</v>
       </c>
+      <c r="AS151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -46461,6 +46885,9 @@
       <c r="AR152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -46592,6 +47019,9 @@
       <c r="AR153" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS153" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -46723,6 +47153,9 @@
       <c r="AR154" s="25" t="n">
         <v>6.597433737E9</v>
       </c>
+      <c r="AS154" s="25" t="n">
+        <v>6.598142015E9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -46854,6 +47287,9 @@
       <c r="AR155" s="25" t="n">
         <v>6.502380851E9</v>
       </c>
+      <c r="AS155" s="25" t="n">
+        <v>6.472346822E9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -46985,6 +47421,9 @@
       <c r="AR156" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -47116,6 +47555,9 @@
       <c r="AR157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -47247,6 +47689,9 @@
       <c r="AR158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -47378,6 +47823,9 @@
       <c r="AR159" s="25" t="n">
         <v>9.5052886E7</v>
       </c>
+      <c r="AS159" s="25" t="n">
+        <v>1.25795193E8</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -47509,6 +47957,9 @@
       <c r="AR160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -47640,6 +48091,9 @@
       <c r="AR161" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -47771,6 +48225,9 @@
       <c r="AR162" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS162" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -47902,6 +48359,9 @@
       <c r="AR163" s="25" t="n">
         <v>3.4016142324E10</v>
       </c>
+      <c r="AS163" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -48033,6 +48493,9 @@
       <c r="AR164" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS164" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -48164,6 +48627,9 @@
       <c r="AR165" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS165" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -48295,6 +48761,9 @@
       <c r="AR166" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS166" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -48426,6 +48895,9 @@
       <c r="AR167" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS167" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -48555,6 +49027,9 @@
         <v>0.0</v>
       </c>
       <c r="AR168" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS168" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -48596,7 +49071,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AR10"/>
+    <mergeCell ref="K10:AS10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/THG.xlsx
+++ b/data/THG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>THG</t>

--- a/data/THG.xlsx
+++ b/data/THG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>THG</t>

--- a/data/THG.xlsx
+++ b/data/THG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>THG</t>
